--- a/src/assets/basic/nogawice.xlsx
+++ b/src/assets/basic/nogawice.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="118">
   <si>
     <t>Nazwa</t>
   </si>
@@ -359,6 +359,15 @@
   </si>
   <si>
     <t>Nogawice strażnika</t>
+  </si>
+  <si>
+    <t>Pusty</t>
+  </si>
+  <si>
+    <t>999</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -435,7 +444,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -466,6 +475,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -773,13 +785,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AA51"/>
+  <dimension ref="A1:AA52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A26" sqref="A26:XFD26"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1"/>
@@ -852,42 +864,42 @@
       <c r="Z1" s="6"/>
       <c r="AA1" s="6"/>
     </row>
-    <row r="2" spans="1:27" ht="15" customHeight="1">
+    <row r="2" spans="1:27" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" s="4">
-        <v>200</v>
-      </c>
-      <c r="C2" s="4">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4">
-        <v>8</v>
-      </c>
-      <c r="E2" s="4">
-        <v>17</v>
-      </c>
-      <c r="F2" s="4">
-        <v>12</v>
-      </c>
-      <c r="G2" s="4">
-        <v>12</v>
-      </c>
-      <c r="H2" s="4">
-        <v>0</v>
+        <v>115</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>22</v>
+        <v>117</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>23</v>
+        <v>117</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>24</v>
+        <v>115</v>
       </c>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
@@ -906,41 +918,41 @@
       <c r="AA2" s="6"/>
     </row>
     <row r="3" spans="1:27" ht="15" customHeight="1">
-      <c r="A3" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="5">
-        <v>400</v>
-      </c>
-      <c r="C3" s="5">
-        <v>3</v>
-      </c>
-      <c r="D3" s="5">
+      <c r="A3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="4">
+        <v>200</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4">
+        <v>17</v>
+      </c>
+      <c r="F3" s="4">
+        <v>12</v>
+      </c>
+      <c r="G3" s="4">
+        <v>12</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="5">
-        <v>27</v>
-      </c>
-      <c r="F3" s="5">
-        <v>49</v>
-      </c>
-      <c r="G3" s="5">
-        <v>17</v>
-      </c>
-      <c r="H3" s="5">
-        <v>0</v>
-      </c>
-      <c r="I3" s="5">
-        <v>32</v>
-      </c>
-      <c r="J3" s="5">
-        <v>78</v>
-      </c>
-      <c r="K3" s="5">
-        <v>0</v>
-      </c>
       <c r="L3" s="3" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
@@ -959,41 +971,41 @@
       <c r="AA3" s="6"/>
     </row>
     <row r="4" spans="1:27" ht="15" customHeight="1">
-      <c r="A4" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" s="4">
+      <c r="A4" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="5">
         <v>400</v>
       </c>
-      <c r="C4" s="4">
-        <v>1.6</v>
-      </c>
-      <c r="D4" s="4">
-        <v>12</v>
-      </c>
-      <c r="E4" s="4">
-        <v>14</v>
-      </c>
-      <c r="F4" s="4">
-        <v>18</v>
-      </c>
-      <c r="G4" s="4">
-        <v>10</v>
-      </c>
-      <c r="H4" s="4">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4">
-        <v>14</v>
-      </c>
-      <c r="J4" s="4">
-        <v>35</v>
-      </c>
-      <c r="K4" s="4">
-        <v>1</v>
+      <c r="C4" s="5">
+        <v>3</v>
+      </c>
+      <c r="D4" s="5">
+        <v>23</v>
+      </c>
+      <c r="E4" s="5">
+        <v>27</v>
+      </c>
+      <c r="F4" s="5">
+        <v>49</v>
+      </c>
+      <c r="G4" s="5">
+        <v>17</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5">
+        <v>32</v>
+      </c>
+      <c r="J4" s="5">
+        <v>78</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
@@ -1013,22 +1025,22 @@
     </row>
     <row r="5" spans="1:27" ht="15" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B5" s="4">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="C5" s="4">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="D5" s="4">
         <v>12</v>
       </c>
       <c r="E5" s="4">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F5" s="4">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G5" s="4">
         <v>10</v>
@@ -1037,16 +1049,16 @@
         <v>0</v>
       </c>
       <c r="I5" s="4">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J5" s="4">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="K5" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
@@ -1066,40 +1078,40 @@
     </row>
     <row r="6" spans="1:27" ht="15" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="B6" s="4">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="C6" s="4">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="D6" s="4">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E6" s="4">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F6" s="4">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G6" s="4">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="H6" s="4">
         <v>0</v>
       </c>
       <c r="I6" s="4">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="J6" s="4">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="K6" s="4">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
@@ -1119,40 +1131,40 @@
     </row>
     <row r="7" spans="1:27" ht="15" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B7" s="4">
         <v>250</v>
       </c>
       <c r="C7" s="4">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="D7" s="4">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E7" s="4">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F7" s="4">
+        <v>12</v>
+      </c>
+      <c r="G7" s="4">
+        <v>17</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <v>23</v>
+      </c>
+      <c r="J7" s="4">
+        <v>28</v>
+      </c>
+      <c r="K7" s="4">
         <v>8</v>
       </c>
-      <c r="G7" s="4">
-        <v>10</v>
-      </c>
-      <c r="H7" s="4">
-        <v>0</v>
-      </c>
-      <c r="I7" s="4">
-        <v>14</v>
-      </c>
-      <c r="J7" s="4">
-        <v>14</v>
-      </c>
-      <c r="K7" s="4">
-        <v>0</v>
-      </c>
       <c r="L7" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
@@ -1172,22 +1184,22 @@
     </row>
     <row r="8" spans="1:27" ht="15" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B8" s="4">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="C8" s="4">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="D8" s="4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" s="4">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="F8" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G8" s="4">
         <v>10</v>
@@ -1196,16 +1208,16 @@
         <v>0</v>
       </c>
       <c r="I8" s="4">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="J8" s="4">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="K8" s="4">
         <v>0</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
@@ -1225,40 +1237,40 @@
     </row>
     <row r="9" spans="1:27" ht="15" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B9" s="4">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="C9" s="4">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="D9" s="4">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E9" s="4">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="F9" s="4">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G9" s="4">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="H9" s="4">
         <v>0</v>
       </c>
       <c r="I9" s="4">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J9" s="4">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K9" s="4">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
@@ -1278,40 +1290,40 @@
     </row>
     <row r="10" spans="1:27" ht="15" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="B10" s="4">
         <v>400</v>
       </c>
       <c r="C10" s="4">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="D10" s="4">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E10" s="4">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="F10" s="4">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G10" s="4">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H10" s="4">
         <v>0</v>
       </c>
       <c r="I10" s="4">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J10" s="4">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K10" s="4">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
@@ -1331,40 +1343,40 @@
     </row>
     <row r="11" spans="1:27" ht="15" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="B11" s="4">
         <v>400</v>
       </c>
       <c r="C11" s="4">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="D11" s="4">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="E11" s="4">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F11" s="4">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G11" s="4">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H11" s="4">
         <v>0</v>
       </c>
       <c r="I11" s="4">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J11" s="4">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K11" s="4">
         <v>0</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
@@ -1384,40 +1396,40 @@
     </row>
     <row r="12" spans="1:27" ht="15" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="B12" s="4">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="C12" s="4">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="D12" s="4">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="E12" s="4">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="F12" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G12" s="4">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="H12" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I12" s="4">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="J12" s="4">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="K12" s="4">
         <v>0</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
@@ -1437,40 +1449,40 @@
     </row>
     <row r="13" spans="1:27" ht="15" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="B13" s="4">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="C13" s="4">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="D13" s="4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E13" s="4">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F13" s="4">
+        <v>6</v>
+      </c>
+      <c r="G13" s="4">
         <v>8</v>
       </c>
-      <c r="G13" s="4">
-        <v>12</v>
-      </c>
       <c r="H13" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I13" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J13" s="4">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="K13" s="4">
         <v>0</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
@@ -1490,40 +1502,40 @@
     </row>
     <row r="14" spans="1:27" ht="15" customHeight="1">
       <c r="A14" s="4" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B14" s="4">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="C14" s="4">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="D14" s="4">
         <v>14</v>
       </c>
       <c r="E14" s="4">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F14" s="4">
         <v>8</v>
       </c>
       <c r="G14" s="4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H14" s="4">
         <v>0</v>
       </c>
       <c r="I14" s="4">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J14" s="4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K14" s="4">
         <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
@@ -1543,40 +1555,40 @@
     </row>
     <row r="15" spans="1:27" ht="15" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="B15" s="4">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="C15" s="4">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="D15" s="4">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E15" s="4">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F15" s="4">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G15" s="4">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H15" s="4">
         <v>0</v>
       </c>
       <c r="I15" s="4">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J15" s="4">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K15" s="4">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
@@ -1595,41 +1607,41 @@
       <c r="AA15" s="6"/>
     </row>
     <row r="16" spans="1:27" ht="15" customHeight="1">
-      <c r="A16" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" s="5">
+      <c r="A16" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="4">
         <v>400</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="4">
         <v>2.8</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
+        <v>16</v>
+      </c>
+      <c r="E16" s="4">
+        <v>22</v>
+      </c>
+      <c r="F16" s="4">
+        <v>17</v>
+      </c>
+      <c r="G16" s="4">
+        <v>13</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4">
         <v>15</v>
       </c>
-      <c r="E16" s="5">
+      <c r="J16" s="4">
         <v>15</v>
       </c>
-      <c r="F16" s="5">
-        <v>19</v>
-      </c>
-      <c r="G16" s="5">
-        <v>19</v>
-      </c>
-      <c r="H16" s="5">
-        <v>0</v>
-      </c>
-      <c r="I16" s="5">
-        <v>14</v>
-      </c>
-      <c r="J16" s="5">
-        <v>7</v>
-      </c>
-      <c r="K16" s="5">
-        <v>18</v>
+      <c r="K16" s="4">
+        <v>9</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
@@ -1648,41 +1660,41 @@
       <c r="AA16" s="6"/>
     </row>
     <row r="17" spans="1:27" ht="15" customHeight="1">
-      <c r="A17" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B17" s="4">
-        <v>250</v>
-      </c>
-      <c r="C17" s="4">
-        <v>1.7</v>
-      </c>
-      <c r="D17" s="4">
-        <v>12</v>
-      </c>
-      <c r="E17" s="4">
-        <v>11</v>
-      </c>
-      <c r="F17" s="4">
-        <v>8</v>
-      </c>
-      <c r="G17" s="4">
-        <v>10</v>
-      </c>
-      <c r="H17" s="4">
-        <v>0</v>
-      </c>
-      <c r="I17" s="4">
-        <v>9</v>
-      </c>
-      <c r="J17" s="4">
-        <v>17</v>
-      </c>
-      <c r="K17" s="4">
-        <v>0</v>
+      <c r="A17" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="5">
+        <v>400</v>
+      </c>
+      <c r="C17" s="5">
+        <v>2.8</v>
+      </c>
+      <c r="D17" s="5">
+        <v>15</v>
+      </c>
+      <c r="E17" s="5">
+        <v>15</v>
+      </c>
+      <c r="F17" s="5">
+        <v>19</v>
+      </c>
+      <c r="G17" s="5">
+        <v>19</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0</v>
+      </c>
+      <c r="I17" s="5">
+        <v>14</v>
+      </c>
+      <c r="J17" s="5">
+        <v>7</v>
+      </c>
+      <c r="K17" s="5">
+        <v>18</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
@@ -1702,40 +1714,40 @@
     </row>
     <row r="18" spans="1:27" ht="15" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B18" s="4">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="C18" s="4">
-        <v>3.2</v>
+        <v>1.7</v>
       </c>
       <c r="D18" s="4">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E18" s="4">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F18" s="4">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G18" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H18" s="4">
         <v>0</v>
       </c>
       <c r="I18" s="4">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="J18" s="4">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="K18" s="4">
         <v>0</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
@@ -1755,40 +1767,40 @@
     </row>
     <row r="19" spans="1:27" ht="15" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="B19" s="4">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="C19" s="4">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="D19" s="4">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E19" s="4">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F19" s="4">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G19" s="4">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="H19" s="4">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I19" s="4">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="J19" s="4">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="K19" s="4">
         <v>0</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
@@ -1808,40 +1820,40 @@
     </row>
     <row r="20" spans="1:27" ht="15" customHeight="1">
       <c r="A20" s="4" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="B20" s="4">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="C20" s="4">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="D20" s="4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E20" s="4">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F20" s="4">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G20" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H20" s="4">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I20" s="4">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="J20" s="4">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="K20" s="4">
         <v>0</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
@@ -1860,41 +1872,41 @@
       <c r="AA20" s="6"/>
     </row>
     <row r="21" spans="1:27" ht="15" customHeight="1">
-      <c r="A21" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B21" s="5">
-        <v>300</v>
-      </c>
-      <c r="C21" s="5">
-        <v>6</v>
-      </c>
-      <c r="D21" s="5">
-        <v>32</v>
-      </c>
-      <c r="E21" s="5">
-        <v>27</v>
-      </c>
-      <c r="F21" s="5">
-        <v>27</v>
-      </c>
-      <c r="G21" s="5">
-        <v>20</v>
-      </c>
-      <c r="H21" s="5">
-        <v>7</v>
-      </c>
-      <c r="I21" s="5">
+      <c r="A21" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="4">
+        <v>250</v>
+      </c>
+      <c r="C21" s="4">
+        <v>3</v>
+      </c>
+      <c r="D21" s="4">
+        <v>12</v>
+      </c>
+      <c r="E21" s="4">
+        <v>19</v>
+      </c>
+      <c r="F21" s="4">
+        <v>13</v>
+      </c>
+      <c r="G21" s="4">
+        <v>15</v>
+      </c>
+      <c r="H21" s="4">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
         <v>23</v>
       </c>
-      <c r="J21" s="5">
-        <v>20</v>
-      </c>
-      <c r="K21" s="5">
+      <c r="J21" s="4">
+        <v>31</v>
+      </c>
+      <c r="K21" s="4">
         <v>0</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
@@ -1913,41 +1925,41 @@
       <c r="AA21" s="6"/>
     </row>
     <row r="22" spans="1:27" ht="15" customHeight="1">
-      <c r="A22" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B22" s="4">
-        <v>250</v>
-      </c>
-      <c r="C22" s="4">
-        <v>5</v>
-      </c>
-      <c r="D22" s="4">
+      <c r="A22" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B22" s="5">
+        <v>300</v>
+      </c>
+      <c r="C22" s="5">
+        <v>6</v>
+      </c>
+      <c r="D22" s="5">
+        <v>32</v>
+      </c>
+      <c r="E22" s="5">
         <v>27</v>
       </c>
-      <c r="E22" s="4">
+      <c r="F22" s="5">
+        <v>27</v>
+      </c>
+      <c r="G22" s="5">
         <v>20</v>
       </c>
-      <c r="F22" s="4">
-        <v>25</v>
-      </c>
-      <c r="G22" s="4">
-        <v>16</v>
-      </c>
-      <c r="H22" s="4">
-        <v>6</v>
-      </c>
-      <c r="I22" s="4">
-        <v>22</v>
-      </c>
-      <c r="J22" s="4">
-        <v>38</v>
-      </c>
-      <c r="K22" s="4">
+      <c r="H22" s="5">
+        <v>7</v>
+      </c>
+      <c r="I22" s="5">
+        <v>23</v>
+      </c>
+      <c r="J22" s="5">
         <v>20</v>
       </c>
+      <c r="K22" s="5">
+        <v>0</v>
+      </c>
       <c r="L22" s="3" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
@@ -1966,41 +1978,41 @@
       <c r="AA22" s="6"/>
     </row>
     <row r="23" spans="1:27" ht="15" customHeight="1">
-      <c r="A23" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B23" s="5">
-        <v>700</v>
-      </c>
-      <c r="C23" s="5">
-        <v>7</v>
-      </c>
-      <c r="D23" s="5">
-        <v>40</v>
-      </c>
-      <c r="E23" s="5">
+      <c r="A23" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B23" s="4">
+        <v>250</v>
+      </c>
+      <c r="C23" s="4">
+        <v>5</v>
+      </c>
+      <c r="D23" s="4">
+        <v>27</v>
+      </c>
+      <c r="E23" s="4">
         <v>20</v>
       </c>
-      <c r="F23" s="5">
-        <v>28</v>
-      </c>
-      <c r="G23" s="5">
-        <v>24</v>
-      </c>
-      <c r="H23" s="5">
-        <v>11</v>
-      </c>
-      <c r="I23" s="5">
+      <c r="F23" s="4">
+        <v>25</v>
+      </c>
+      <c r="G23" s="4">
+        <v>16</v>
+      </c>
+      <c r="H23" s="4">
+        <v>6</v>
+      </c>
+      <c r="I23" s="4">
         <v>22</v>
       </c>
-      <c r="J23" s="5">
-        <v>12</v>
-      </c>
-      <c r="K23" s="5">
-        <v>12</v>
+      <c r="J23" s="4">
+        <v>38</v>
+      </c>
+      <c r="K23" s="4">
+        <v>20</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
@@ -2020,40 +2032,40 @@
     </row>
     <row r="24" spans="1:27" ht="15" customHeight="1">
       <c r="A24" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B24" s="5">
         <v>700</v>
       </c>
       <c r="C24" s="5">
-        <v>10.4</v>
+        <v>7</v>
       </c>
       <c r="D24" s="5">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="E24" s="5">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="F24" s="5">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="G24" s="5">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="H24" s="5">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I24" s="5">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="J24" s="5">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K24" s="5">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
@@ -2072,41 +2084,41 @@
       <c r="AA24" s="6"/>
     </row>
     <row r="25" spans="1:27" ht="15" customHeight="1">
-      <c r="A25" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B25" s="4">
-        <v>250</v>
-      </c>
-      <c r="C25" s="4">
-        <v>2.8</v>
-      </c>
-      <c r="D25" s="4">
-        <v>12</v>
-      </c>
-      <c r="E25" s="4">
-        <v>12</v>
-      </c>
-      <c r="F25" s="4">
-        <v>6</v>
-      </c>
-      <c r="G25" s="4">
-        <v>13</v>
-      </c>
-      <c r="H25" s="4">
-        <v>0</v>
-      </c>
-      <c r="I25" s="4">
-        <v>13</v>
-      </c>
-      <c r="J25" s="4">
-        <v>12</v>
-      </c>
-      <c r="K25" s="4">
-        <v>0</v>
+      <c r="A25" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" s="5">
+        <v>700</v>
+      </c>
+      <c r="C25" s="5">
+        <v>10.4</v>
+      </c>
+      <c r="D25" s="5">
+        <v>61</v>
+      </c>
+      <c r="E25" s="5">
+        <v>31</v>
+      </c>
+      <c r="F25" s="5">
+        <v>40</v>
+      </c>
+      <c r="G25" s="5">
+        <v>33</v>
+      </c>
+      <c r="H25" s="5">
+        <v>21</v>
+      </c>
+      <c r="I25" s="5">
+        <v>33</v>
+      </c>
+      <c r="J25" s="5">
+        <v>16</v>
+      </c>
+      <c r="K25" s="5">
+        <v>5</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
@@ -2125,41 +2137,41 @@
       <c r="AA25" s="6"/>
     </row>
     <row r="26" spans="1:27" ht="15" customHeight="1">
-      <c r="A26" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B26" s="5">
-        <v>800</v>
-      </c>
-      <c r="C26" s="5">
-        <v>10.4</v>
-      </c>
-      <c r="D26" s="5">
-        <v>54</v>
-      </c>
-      <c r="E26" s="5">
-        <v>27</v>
-      </c>
-      <c r="F26" s="5">
-        <v>33</v>
-      </c>
-      <c r="G26" s="5">
-        <v>33</v>
-      </c>
-      <c r="H26" s="5">
-        <v>23</v>
-      </c>
-      <c r="I26" s="5">
-        <v>27</v>
-      </c>
-      <c r="J26" s="5">
-        <v>10</v>
-      </c>
-      <c r="K26" s="5">
+      <c r="A26" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" s="4">
+        <v>250</v>
+      </c>
+      <c r="C26" s="4">
+        <v>2.8</v>
+      </c>
+      <c r="D26" s="4">
+        <v>12</v>
+      </c>
+      <c r="E26" s="4">
+        <v>12</v>
+      </c>
+      <c r="F26" s="4">
+        <v>6</v>
+      </c>
+      <c r="G26" s="4">
+        <v>13</v>
+      </c>
+      <c r="H26" s="4">
+        <v>0</v>
+      </c>
+      <c r="I26" s="4">
+        <v>13</v>
+      </c>
+      <c r="J26" s="4">
+        <v>12</v>
+      </c>
+      <c r="K26" s="4">
         <v>0</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
@@ -2179,7 +2191,7 @@
     </row>
     <row r="27" spans="1:27" ht="15" customHeight="1">
       <c r="A27" s="5" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B27" s="5">
         <v>800</v>
@@ -2191,10 +2203,10 @@
         <v>54</v>
       </c>
       <c r="E27" s="5">
+        <v>27</v>
+      </c>
+      <c r="F27" s="5">
         <v>33</v>
-      </c>
-      <c r="F27" s="5">
-        <v>27</v>
       </c>
       <c r="G27" s="5">
         <v>33</v>
@@ -2212,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
@@ -2231,41 +2243,41 @@
       <c r="AA27" s="6"/>
     </row>
     <row r="28" spans="1:27" ht="15" customHeight="1">
-      <c r="A28" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B28" s="4">
-        <v>300</v>
-      </c>
-      <c r="C28" s="9">
-        <v>5.8</v>
-      </c>
-      <c r="D28" s="10">
+      <c r="A28" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B28" s="5">
+        <v>800</v>
+      </c>
+      <c r="C28" s="5">
+        <v>10.4</v>
+      </c>
+      <c r="D28" s="5">
+        <v>54</v>
+      </c>
+      <c r="E28" s="5">
+        <v>33</v>
+      </c>
+      <c r="F28" s="5">
         <v>27</v>
       </c>
-      <c r="E28" s="10">
-        <v>18</v>
-      </c>
-      <c r="F28" s="10">
-        <v>18</v>
-      </c>
-      <c r="G28" s="10">
-        <v>15</v>
-      </c>
-      <c r="H28" s="10">
-        <v>9</v>
-      </c>
-      <c r="I28" s="10">
-        <v>18</v>
-      </c>
-      <c r="J28" s="10">
-        <v>12</v>
-      </c>
-      <c r="K28" s="10">
+      <c r="G28" s="5">
+        <v>33</v>
+      </c>
+      <c r="H28" s="5">
+        <v>23</v>
+      </c>
+      <c r="I28" s="5">
+        <v>27</v>
+      </c>
+      <c r="J28" s="5">
+        <v>10</v>
+      </c>
+      <c r="K28" s="5">
         <v>0</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
@@ -2285,40 +2297,40 @@
     </row>
     <row r="29" spans="1:27" ht="15" customHeight="1">
       <c r="A29" s="4" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="B29" s="4">
-        <v>250</v>
-      </c>
-      <c r="C29" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="D29" s="4">
-        <v>13</v>
-      </c>
-      <c r="E29" s="4">
-        <v>12</v>
-      </c>
-      <c r="F29" s="4">
-        <v>7</v>
-      </c>
-      <c r="G29" s="4">
-        <v>13</v>
-      </c>
-      <c r="H29" s="4">
-        <v>0</v>
-      </c>
-      <c r="I29" s="4">
-        <v>14</v>
-      </c>
-      <c r="J29" s="4">
-        <v>12</v>
-      </c>
-      <c r="K29" s="4">
+        <v>300</v>
+      </c>
+      <c r="C29" s="9">
+        <v>5.8</v>
+      </c>
+      <c r="D29" s="10">
+        <v>27</v>
+      </c>
+      <c r="E29" s="10">
+        <v>18</v>
+      </c>
+      <c r="F29" s="10">
+        <v>18</v>
+      </c>
+      <c r="G29" s="10">
+        <v>15</v>
+      </c>
+      <c r="H29" s="10">
+        <v>9</v>
+      </c>
+      <c r="I29" s="10">
+        <v>18</v>
+      </c>
+      <c r="J29" s="10">
+        <v>12</v>
+      </c>
+      <c r="K29" s="10">
         <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
@@ -2337,41 +2349,41 @@
       <c r="AA29" s="6"/>
     </row>
     <row r="30" spans="1:27" ht="15" customHeight="1">
-      <c r="A30" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B30" s="5">
-        <v>900</v>
-      </c>
-      <c r="C30" s="5">
-        <v>11.5</v>
-      </c>
-      <c r="D30" s="5">
-        <v>54</v>
-      </c>
-      <c r="E30" s="5">
-        <v>32</v>
-      </c>
-      <c r="F30" s="5">
-        <v>32</v>
-      </c>
-      <c r="G30" s="5">
-        <v>29</v>
-      </c>
-      <c r="H30" s="5">
-        <v>28</v>
-      </c>
-      <c r="I30" s="5">
-        <v>27</v>
-      </c>
-      <c r="J30" s="5">
-        <v>5</v>
-      </c>
-      <c r="K30" s="5">
+      <c r="A30" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="4">
+        <v>250</v>
+      </c>
+      <c r="C30" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="D30" s="4">
         <v>13</v>
       </c>
+      <c r="E30" s="4">
+        <v>12</v>
+      </c>
+      <c r="F30" s="4">
+        <v>7</v>
+      </c>
+      <c r="G30" s="4">
+        <v>13</v>
+      </c>
+      <c r="H30" s="4">
+        <v>0</v>
+      </c>
+      <c r="I30" s="4">
+        <v>14</v>
+      </c>
+      <c r="J30" s="4">
+        <v>12</v>
+      </c>
+      <c r="K30" s="4">
+        <v>0</v>
+      </c>
       <c r="L30" s="3" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="M30" s="6"/>
       <c r="N30" s="6"/>
@@ -2390,200 +2402,200 @@
       <c r="AA30" s="6"/>
     </row>
     <row r="31" spans="1:27" ht="15" customHeight="1">
-      <c r="A31" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B31" s="4">
-        <v>600</v>
-      </c>
-      <c r="C31" s="4">
-        <v>5.5</v>
-      </c>
-      <c r="D31" s="4">
-        <v>23</v>
-      </c>
-      <c r="E31" s="4">
-        <v>11</v>
-      </c>
-      <c r="F31" s="4">
-        <v>24</v>
-      </c>
-      <c r="G31" s="4">
-        <v>11</v>
-      </c>
-      <c r="H31" s="4">
-        <v>9</v>
-      </c>
-      <c r="I31" s="4">
-        <v>11</v>
-      </c>
-      <c r="J31" s="4">
-        <v>11</v>
-      </c>
-      <c r="K31" s="4">
-        <v>10</v>
+      <c r="A31" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B31" s="5">
+        <v>900</v>
+      </c>
+      <c r="C31" s="5">
+        <v>11.5</v>
+      </c>
+      <c r="D31" s="5">
+        <v>54</v>
+      </c>
+      <c r="E31" s="5">
+        <v>32</v>
+      </c>
+      <c r="F31" s="5">
+        <v>32</v>
+      </c>
+      <c r="G31" s="5">
+        <v>29</v>
+      </c>
+      <c r="H31" s="5">
+        <v>28</v>
+      </c>
+      <c r="I31" s="5">
+        <v>27</v>
+      </c>
+      <c r="J31" s="5">
+        <v>5</v>
+      </c>
+      <c r="K31" s="5">
+        <v>13</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="M31" s="11"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="7"/>
-      <c r="P31" s="7"/>
-      <c r="Q31" s="13"/>
-      <c r="R31" s="12"/>
-      <c r="S31" s="7"/>
-      <c r="T31" s="7"/>
-      <c r="U31" s="7"/>
-      <c r="V31" s="7"/>
-      <c r="W31" s="13"/>
-      <c r="X31" s="7"/>
-      <c r="Y31" s="7"/>
-      <c r="Z31" s="7"/>
-      <c r="AA31" s="13"/>
+        <v>57</v>
+      </c>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="6"/>
+      <c r="U31" s="6"/>
+      <c r="V31" s="6"/>
+      <c r="W31" s="6"/>
+      <c r="X31" s="6"/>
+      <c r="Y31" s="6"/>
+      <c r="Z31" s="6"/>
+      <c r="AA31" s="6"/>
     </row>
     <row r="32" spans="1:27" ht="15" customHeight="1">
       <c r="A32" s="4" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="B32" s="4">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="C32" s="4">
-        <v>6.9</v>
+        <v>5.5</v>
       </c>
       <c r="D32" s="4">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E32" s="4">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F32" s="4">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G32" s="4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H32" s="4">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I32" s="4">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="J32" s="4">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K32" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="M32" s="12"/>
       <c r="N32" s="8"/>
       <c r="O32" s="7"/>
       <c r="P32" s="7"/>
-      <c r="Q32" s="13"/>
-      <c r="R32" s="12"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="13"/>
       <c r="S32" s="7"/>
       <c r="T32" s="7"/>
       <c r="U32" s="7"/>
       <c r="V32" s="7"/>
-      <c r="W32" s="12"/>
+      <c r="W32" s="14"/>
       <c r="X32" s="7"/>
       <c r="Y32" s="7"/>
       <c r="Z32" s="7"/>
-      <c r="AA32" s="12"/>
+      <c r="AA32" s="14"/>
     </row>
     <row r="33" spans="1:27" ht="15" customHeight="1">
       <c r="A33" s="4" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="B33" s="4">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="C33" s="4">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="D33" s="4">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E33" s="4">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F33" s="4">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G33" s="4">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H33" s="4">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I33" s="4">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="J33" s="4">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="K33" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="6"/>
-      <c r="P33" s="6"/>
-      <c r="Q33" s="6"/>
-      <c r="R33" s="6"/>
-      <c r="S33" s="6"/>
-      <c r="T33" s="6"/>
-      <c r="U33" s="6"/>
-      <c r="V33" s="6"/>
-      <c r="W33" s="6"/>
-      <c r="X33" s="6"/>
-      <c r="Y33" s="6"/>
-      <c r="Z33" s="6"/>
-      <c r="AA33" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="M33" s="13"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="14"/>
+      <c r="R33" s="13"/>
+      <c r="S33" s="7"/>
+      <c r="T33" s="7"/>
+      <c r="U33" s="7"/>
+      <c r="V33" s="7"/>
+      <c r="W33" s="13"/>
+      <c r="X33" s="7"/>
+      <c r="Y33" s="7"/>
+      <c r="Z33" s="7"/>
+      <c r="AA33" s="13"/>
     </row>
     <row r="34" spans="1:27" ht="15" customHeight="1">
       <c r="A34" s="4" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B34" s="4">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="C34" s="4">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="D34" s="4">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E34" s="4">
+        <v>15</v>
+      </c>
+      <c r="F34" s="4">
         <v>16</v>
       </c>
-      <c r="F34" s="4">
-        <v>18</v>
-      </c>
       <c r="G34" s="4">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H34" s="4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I34" s="4">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J34" s="4">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K34" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="M34" s="6"/>
       <c r="N34" s="6"/>
@@ -2602,41 +2614,41 @@
       <c r="AA34" s="6"/>
     </row>
     <row r="35" spans="1:27" ht="15" customHeight="1">
-      <c r="A35" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B35" s="5">
-        <v>700</v>
-      </c>
-      <c r="C35" s="5">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="D35" s="5">
-        <v>54</v>
-      </c>
-      <c r="E35" s="5">
-        <v>25</v>
-      </c>
-      <c r="F35" s="5">
-        <v>23</v>
-      </c>
-      <c r="G35" s="5">
+      <c r="A35" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B35" s="4">
+        <v>250</v>
+      </c>
+      <c r="C35" s="4">
+        <v>6.2</v>
+      </c>
+      <c r="D35" s="4">
+        <v>26</v>
+      </c>
+      <c r="E35" s="4">
+        <v>16</v>
+      </c>
+      <c r="F35" s="4">
+        <v>18</v>
+      </c>
+      <c r="G35" s="4">
+        <v>12</v>
+      </c>
+      <c r="H35" s="4">
+        <v>9</v>
+      </c>
+      <c r="I35" s="4">
+        <v>16</v>
+      </c>
+      <c r="J35" s="4">
         <v>10</v>
       </c>
-      <c r="H35" s="5">
-        <v>20</v>
-      </c>
-      <c r="I35" s="5">
-        <v>27</v>
-      </c>
-      <c r="J35" s="5">
-        <v>17</v>
-      </c>
-      <c r="K35" s="5">
+      <c r="K35" s="4">
         <v>0</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M35" s="6"/>
       <c r="N35" s="6"/>
@@ -2655,41 +2667,41 @@
       <c r="AA35" s="6"/>
     </row>
     <row r="36" spans="1:27" ht="15" customHeight="1">
-      <c r="A36" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B36" s="4">
-        <v>500</v>
-      </c>
-      <c r="C36" s="4">
-        <v>7.6</v>
-      </c>
-      <c r="D36" s="4">
-        <v>35</v>
-      </c>
-      <c r="E36" s="4">
-        <v>19</v>
-      </c>
-      <c r="F36" s="4">
-        <v>21</v>
-      </c>
-      <c r="G36" s="4">
-        <v>12</v>
-      </c>
-      <c r="H36" s="4">
-        <v>12</v>
-      </c>
-      <c r="I36" s="4">
-        <v>21</v>
-      </c>
-      <c r="J36" s="4">
-        <v>13</v>
-      </c>
-      <c r="K36" s="4">
-        <v>34</v>
+      <c r="A36" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B36" s="5">
+        <v>700</v>
+      </c>
+      <c r="C36" s="5">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="D36" s="5">
+        <v>54</v>
+      </c>
+      <c r="E36" s="5">
+        <v>25</v>
+      </c>
+      <c r="F36" s="5">
+        <v>23</v>
+      </c>
+      <c r="G36" s="5">
+        <v>10</v>
+      </c>
+      <c r="H36" s="5">
+        <v>20</v>
+      </c>
+      <c r="I36" s="5">
+        <v>27</v>
+      </c>
+      <c r="J36" s="5">
+        <v>17</v>
+      </c>
+      <c r="K36" s="5">
+        <v>0</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="M36" s="6"/>
       <c r="N36" s="6"/>
@@ -2709,40 +2721,40 @@
     </row>
     <row r="37" spans="1:27" ht="15" customHeight="1">
       <c r="A37" s="4" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="B37" s="4">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="C37" s="4">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="D37" s="4">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E37" s="4">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F37" s="4">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G37" s="4">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H37" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I37" s="4">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J37" s="4">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K37" s="4">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="M37" s="6"/>
       <c r="N37" s="6"/>
@@ -2762,40 +2774,40 @@
     </row>
     <row r="38" spans="1:27" ht="15" customHeight="1">
       <c r="A38" s="4" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="B38" s="4">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="C38" s="4">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="D38" s="4">
+        <v>30</v>
+      </c>
+      <c r="E38" s="4">
+        <v>15</v>
+      </c>
+      <c r="F38" s="4">
         <v>26</v>
       </c>
-      <c r="E38" s="4">
-        <v>16</v>
-      </c>
-      <c r="F38" s="4">
-        <v>15</v>
-      </c>
       <c r="G38" s="4">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H38" s="4">
+        <v>11</v>
+      </c>
+      <c r="I38" s="4">
+        <v>17</v>
+      </c>
+      <c r="J38" s="4">
         <v>9</v>
       </c>
-      <c r="I38" s="4">
-        <v>14</v>
-      </c>
-      <c r="J38" s="4">
-        <v>12</v>
-      </c>
       <c r="K38" s="4">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="M38" s="6"/>
       <c r="N38" s="6"/>
@@ -2815,40 +2827,40 @@
     </row>
     <row r="39" spans="1:27" ht="15" customHeight="1">
       <c r="A39" s="4" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="B39" s="4">
         <v>600</v>
       </c>
       <c r="C39" s="4">
-        <v>9.6999999999999993</v>
+        <v>6.4</v>
       </c>
       <c r="D39" s="4">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="E39" s="4">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F39" s="4">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="G39" s="4">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H39" s="4">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="I39" s="4">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J39" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K39" s="4">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="M39" s="6"/>
       <c r="N39" s="6"/>
@@ -2868,40 +2880,40 @@
     </row>
     <row r="40" spans="1:27" ht="15" customHeight="1">
       <c r="A40" s="4" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="B40" s="4">
         <v>600</v>
       </c>
       <c r="C40" s="4">
-        <v>9.1999999999999993</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="D40" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E40" s="4">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F40" s="4">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G40" s="4">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H40" s="4">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I40" s="4">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="J40" s="4">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K40" s="4">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="M40" s="6"/>
       <c r="N40" s="6"/>
@@ -2921,40 +2933,40 @@
     </row>
     <row r="41" spans="1:27" ht="15" customHeight="1">
       <c r="A41" s="4" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="B41" s="4">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="C41" s="4">
-        <v>8</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="D41" s="4">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="E41" s="4">
         <v>17</v>
       </c>
       <c r="F41" s="4">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G41" s="4">
         <v>13</v>
       </c>
       <c r="H41" s="4">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I41" s="4">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="J41" s="4">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="K41" s="4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="M41" s="6"/>
       <c r="N41" s="6"/>
@@ -2974,40 +2986,40 @@
     </row>
     <row r="42" spans="1:27" ht="15" customHeight="1">
       <c r="A42" s="4" t="s">
-        <v>67</v>
+        <v>113</v>
       </c>
       <c r="B42" s="4">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="C42" s="4">
-        <v>4.5999999999999996</v>
+        <v>8</v>
       </c>
       <c r="D42" s="4">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="E42" s="4">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F42" s="4">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="G42" s="4">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="H42" s="4">
+        <v>13</v>
+      </c>
+      <c r="I42" s="4">
+        <v>13</v>
+      </c>
+      <c r="J42" s="4">
         <v>7</v>
       </c>
-      <c r="I42" s="4">
-        <v>15</v>
-      </c>
-      <c r="J42" s="4">
-        <v>9</v>
-      </c>
       <c r="K42" s="4">
         <v>0</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M42" s="6"/>
       <c r="N42" s="6"/>
@@ -3027,40 +3039,40 @@
     </row>
     <row r="43" spans="1:27" ht="15" customHeight="1">
       <c r="A43" s="4" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="B43" s="4">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="C43" s="4">
-        <v>5.3</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D43" s="4">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E43" s="4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F43" s="4">
         <v>12</v>
       </c>
       <c r="G43" s="4">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="H43" s="4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I43" s="4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J43" s="4">
         <v>9</v>
       </c>
       <c r="K43" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M43" s="6"/>
       <c r="N43" s="6"/>
@@ -3079,41 +3091,41 @@
       <c r="AA43" s="6"/>
     </row>
     <row r="44" spans="1:27" ht="15" customHeight="1">
-      <c r="A44" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B44" s="5">
-        <v>500</v>
-      </c>
-      <c r="C44" s="5">
-        <v>4</v>
-      </c>
-      <c r="D44" s="5">
+      <c r="A44" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B44" s="4">
+        <v>350</v>
+      </c>
+      <c r="C44" s="4">
+        <v>5.3</v>
+      </c>
+      <c r="D44" s="4">
+        <v>21</v>
+      </c>
+      <c r="E44" s="4">
+        <v>12</v>
+      </c>
+      <c r="F44" s="4">
+        <v>12</v>
+      </c>
+      <c r="G44" s="4">
+        <v>11</v>
+      </c>
+      <c r="H44" s="4">
+        <v>9</v>
+      </c>
+      <c r="I44" s="4">
         <v>14</v>
       </c>
-      <c r="E44" s="5">
-        <v>10</v>
-      </c>
-      <c r="F44" s="5">
-        <v>11</v>
-      </c>
-      <c r="G44" s="5">
-        <v>7</v>
-      </c>
-      <c r="H44" s="5">
-        <v>6</v>
-      </c>
-      <c r="I44" s="5">
-        <v>8</v>
-      </c>
-      <c r="J44" s="5">
-        <v>6</v>
-      </c>
-      <c r="K44" s="5">
-        <v>5</v>
+      <c r="J44" s="4">
+        <v>9</v>
+      </c>
+      <c r="K44" s="4">
+        <v>2</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M44" s="6"/>
       <c r="N44" s="6"/>
@@ -3132,41 +3144,41 @@
       <c r="AA44" s="6"/>
     </row>
     <row r="45" spans="1:27" ht="15" customHeight="1">
-      <c r="A45" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B45" s="4">
+      <c r="A45" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B45" s="5">
         <v>500</v>
       </c>
-      <c r="C45" s="4">
-        <v>6.9</v>
-      </c>
-      <c r="D45" s="4">
-        <v>28</v>
-      </c>
-      <c r="E45" s="4">
+      <c r="C45" s="5">
+        <v>4</v>
+      </c>
+      <c r="D45" s="5">
         <v>14</v>
       </c>
-      <c r="F45" s="4">
-        <v>18</v>
-      </c>
-      <c r="G45" s="4">
+      <c r="E45" s="5">
+        <v>10</v>
+      </c>
+      <c r="F45" s="5">
         <v>11</v>
       </c>
-      <c r="H45" s="4">
-        <v>11</v>
-      </c>
-      <c r="I45" s="4">
-        <v>15</v>
-      </c>
-      <c r="J45" s="4">
-        <v>14</v>
-      </c>
-      <c r="K45" s="4">
-        <v>14</v>
+      <c r="G45" s="5">
+        <v>7</v>
+      </c>
+      <c r="H45" s="5">
+        <v>6</v>
+      </c>
+      <c r="I45" s="5">
+        <v>8</v>
+      </c>
+      <c r="J45" s="5">
+        <v>6</v>
+      </c>
+      <c r="K45" s="5">
+        <v>5</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="M45" s="6"/>
       <c r="N45" s="6"/>
@@ -3186,40 +3198,40 @@
     </row>
     <row r="46" spans="1:27" ht="15" customHeight="1">
       <c r="A46" s="4" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="B46" s="4">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="C46" s="4">
-        <v>4</v>
+        <v>6.9</v>
       </c>
       <c r="D46" s="4">
+        <v>28</v>
+      </c>
+      <c r="E46" s="4">
+        <v>14</v>
+      </c>
+      <c r="F46" s="4">
+        <v>18</v>
+      </c>
+      <c r="G46" s="4">
+        <v>11</v>
+      </c>
+      <c r="H46" s="4">
+        <v>11</v>
+      </c>
+      <c r="I46" s="4">
         <v>15</v>
       </c>
-      <c r="E46" s="4">
-        <v>5</v>
-      </c>
-      <c r="F46" s="4">
-        <v>11</v>
-      </c>
-      <c r="G46" s="4">
-        <v>6</v>
-      </c>
-      <c r="H46" s="4">
-        <v>6</v>
-      </c>
-      <c r="I46" s="4">
-        <v>12</v>
-      </c>
       <c r="J46" s="4">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K46" s="4">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="M46" s="6"/>
       <c r="N46" s="6"/>
@@ -3239,40 +3251,40 @@
     </row>
     <row r="47" spans="1:27" ht="15" customHeight="1">
       <c r="A47" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B47" s="4">
         <v>450</v>
       </c>
       <c r="C47" s="4">
-        <v>6.4</v>
+        <v>4</v>
       </c>
       <c r="D47" s="4">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E47" s="4">
+        <v>5</v>
+      </c>
+      <c r="F47" s="4">
+        <v>11</v>
+      </c>
+      <c r="G47" s="4">
+        <v>6</v>
+      </c>
+      <c r="H47" s="4">
+        <v>6</v>
+      </c>
+      <c r="I47" s="4">
+        <v>12</v>
+      </c>
+      <c r="J47" s="4">
         <v>10</v>
       </c>
-      <c r="F47" s="4">
-        <v>12</v>
-      </c>
-      <c r="G47" s="4">
-        <v>9</v>
-      </c>
-      <c r="H47" s="4">
-        <v>9</v>
-      </c>
-      <c r="I47" s="4">
-        <v>12</v>
-      </c>
-      <c r="J47" s="4">
-        <v>9</v>
-      </c>
       <c r="K47" s="4">
         <v>0</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="M47" s="6"/>
       <c r="N47" s="6"/>
@@ -3292,10 +3304,10 @@
     </row>
     <row r="48" spans="1:27" ht="15" customHeight="1">
       <c r="A48" s="4" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="B48" s="4">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="C48" s="4">
         <v>6.4</v>
@@ -3307,16 +3319,16 @@
         <v>10</v>
       </c>
       <c r="F48" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G48" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H48" s="4">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I48" s="4">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J48" s="4">
         <v>9</v>
@@ -3325,7 +3337,7 @@
         <v>0</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="M48" s="6"/>
       <c r="N48" s="6"/>
@@ -3345,25 +3357,25 @@
     </row>
     <row r="49" spans="1:27" ht="15" customHeight="1">
       <c r="A49" s="4" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B49" s="4">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="C49" s="4">
-        <v>7.4</v>
+        <v>6.4</v>
       </c>
       <c r="D49" s="4">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E49" s="4">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F49" s="4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G49" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H49" s="4">
         <v>12</v>
@@ -3378,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="M49" s="6"/>
       <c r="N49" s="6"/>
@@ -3398,22 +3410,22 @@
     </row>
     <row r="50" spans="1:27" ht="15" customHeight="1">
       <c r="A50" s="4" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B50" s="4">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="C50" s="4">
-        <v>6.9</v>
+        <v>7.4</v>
       </c>
       <c r="D50" s="4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E50" s="4">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F50" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G50" s="4">
         <v>9</v>
@@ -3431,7 +3443,7 @@
         <v>0</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="M50" s="6"/>
       <c r="N50" s="6"/>
@@ -3451,28 +3463,28 @@
     </row>
     <row r="51" spans="1:27" ht="15" customHeight="1">
       <c r="A51" s="4" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="B51" s="4">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="C51" s="4">
-        <v>8.3000000000000007</v>
+        <v>6.9</v>
       </c>
       <c r="D51" s="4">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E51" s="4">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F51" s="4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G51" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H51" s="4">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I51" s="4">
         <v>14</v>
@@ -3484,7 +3496,7 @@
         <v>0</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="M51" s="6"/>
       <c r="N51" s="6"/>
@@ -3502,13 +3514,66 @@
       <c r="Z51" s="6"/>
       <c r="AA51" s="6"/>
     </row>
+    <row r="52" spans="1:27" ht="15" customHeight="1">
+      <c r="A52" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B52" s="4">
+        <v>500</v>
+      </c>
+      <c r="C52" s="4">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="D52" s="4">
+        <v>25</v>
+      </c>
+      <c r="E52" s="4">
+        <v>13</v>
+      </c>
+      <c r="F52" s="4">
+        <v>12</v>
+      </c>
+      <c r="G52" s="4">
+        <v>8</v>
+      </c>
+      <c r="H52" s="4">
+        <v>14</v>
+      </c>
+      <c r="I52" s="4">
+        <v>14</v>
+      </c>
+      <c r="J52" s="4">
+        <v>9</v>
+      </c>
+      <c r="K52" s="4">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M52" s="6"/>
+      <c r="N52" s="6"/>
+      <c r="O52" s="6"/>
+      <c r="P52" s="6"/>
+      <c r="Q52" s="6"/>
+      <c r="R52" s="6"/>
+      <c r="S52" s="6"/>
+      <c r="T52" s="6"/>
+      <c r="U52" s="6"/>
+      <c r="V52" s="6"/>
+      <c r="W52" s="6"/>
+      <c r="X52" s="6"/>
+      <c r="Y52" s="6"/>
+      <c r="Z52" s="6"/>
+      <c r="AA52" s="6"/>
+    </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="M31:M32"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="W31:W32"/>
-    <mergeCell ref="AA31:AA32"/>
+    <mergeCell ref="M32:M33"/>
     <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="W32:W33"/>
+    <mergeCell ref="AA32:AA33"/>
+    <mergeCell ref="Q33:R33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/assets/basic/nogawice.xlsx
+++ b/src/assets/basic/nogawice.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="115">
   <si>
     <t>Nazwa</t>
   </si>
@@ -77,15 +77,6 @@
   </si>
   <si>
     <t>Zestaw czarodzieja</t>
-  </si>
-  <si>
-    <t>18 .0</t>
-  </si>
-  <si>
-    <t>18. 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 .0 </t>
   </si>
   <si>
     <t>Czarny zestaw czarodzieja</t>
@@ -791,7 +782,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:L2"/>
+      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1"/>
@@ -866,40 +857,40 @@
     </row>
     <row r="2" spans="1:27" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
@@ -919,7 +910,7 @@
     </row>
     <row r="3" spans="1:27" ht="15" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B3" s="4">
         <v>200</v>
@@ -942,17 +933,17 @@
       <c r="H3" s="4">
         <v>0</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="4">
+        <v>18</v>
+      </c>
+      <c r="J3" s="4">
+        <v>18</v>
+      </c>
+      <c r="K3" s="4">
+        <v>2</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
@@ -972,7 +963,7 @@
     </row>
     <row r="4" spans="1:27" ht="15" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B4" s="5">
         <v>400</v>
@@ -1005,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
@@ -1025,7 +1016,7 @@
     </row>
     <row r="5" spans="1:27" ht="15" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B5" s="4">
         <v>400</v>
@@ -1058,7 +1049,7 @@
         <v>1</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
@@ -1078,7 +1069,7 @@
     </row>
     <row r="6" spans="1:27" ht="15" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B6" s="4">
         <v>200</v>
@@ -1131,7 +1122,7 @@
     </row>
     <row r="7" spans="1:27" ht="15" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B7" s="4">
         <v>250</v>
@@ -1164,7 +1155,7 @@
         <v>8</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
@@ -1184,7 +1175,7 @@
     </row>
     <row r="8" spans="1:27" ht="15" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B8" s="4">
         <v>250</v>
@@ -1217,7 +1208,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
@@ -1237,7 +1228,7 @@
     </row>
     <row r="9" spans="1:27" ht="15" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B9" s="4">
         <v>200</v>
@@ -1270,7 +1261,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
@@ -1290,7 +1281,7 @@
     </row>
     <row r="10" spans="1:27" ht="15" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B10" s="4">
         <v>400</v>
@@ -1323,7 +1314,7 @@
         <v>19</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
@@ -1343,7 +1334,7 @@
     </row>
     <row r="11" spans="1:27" ht="15" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B11" s="4">
         <v>400</v>
@@ -1396,7 +1387,7 @@
     </row>
     <row r="12" spans="1:27" ht="15" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B12" s="4">
         <v>400</v>
@@ -1429,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
@@ -1449,7 +1440,7 @@
     </row>
     <row r="13" spans="1:27" ht="15" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B13" s="4">
         <v>250</v>
@@ -1482,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
@@ -1502,7 +1493,7 @@
     </row>
     <row r="14" spans="1:27" ht="15" customHeight="1">
       <c r="A14" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B14" s="4">
         <v>350</v>
@@ -1535,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
@@ -1555,7 +1546,7 @@
     </row>
     <row r="15" spans="1:27" ht="15" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B15" s="4">
         <v>200</v>
@@ -1608,7 +1599,7 @@
     </row>
     <row r="16" spans="1:27" ht="15" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B16" s="4">
         <v>400</v>
@@ -1641,7 +1632,7 @@
         <v>9</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
@@ -1661,7 +1652,7 @@
     </row>
     <row r="17" spans="1:27" ht="15" customHeight="1">
       <c r="A17" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B17" s="5">
         <v>400</v>
@@ -1694,7 +1685,7 @@
         <v>18</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
@@ -1714,7 +1705,7 @@
     </row>
     <row r="18" spans="1:27" ht="15" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B18" s="4">
         <v>250</v>
@@ -1747,7 +1738,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
@@ -1767,7 +1758,7 @@
     </row>
     <row r="19" spans="1:27" ht="15" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B19" s="4">
         <v>300</v>
@@ -1800,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
@@ -1820,7 +1811,7 @@
     </row>
     <row r="20" spans="1:27" ht="15" customHeight="1">
       <c r="A20" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B20" s="4">
         <v>200</v>
@@ -1853,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
@@ -1873,7 +1864,7 @@
     </row>
     <row r="21" spans="1:27" ht="15" customHeight="1">
       <c r="A21" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B21" s="4">
         <v>250</v>
@@ -1926,7 +1917,7 @@
     </row>
     <row r="22" spans="1:27" ht="15" customHeight="1">
       <c r="A22" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B22" s="5">
         <v>300</v>
@@ -1959,7 +1950,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
@@ -1979,7 +1970,7 @@
     </row>
     <row r="23" spans="1:27" ht="15" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B23" s="4">
         <v>250</v>
@@ -2012,7 +2003,7 @@
         <v>20</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
@@ -2032,7 +2023,7 @@
     </row>
     <row r="24" spans="1:27" ht="15" customHeight="1">
       <c r="A24" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B24" s="5">
         <v>700</v>
@@ -2065,7 +2056,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
@@ -2085,7 +2076,7 @@
     </row>
     <row r="25" spans="1:27" ht="15" customHeight="1">
       <c r="A25" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B25" s="5">
         <v>700</v>
@@ -2118,7 +2109,7 @@
         <v>5</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
@@ -2138,7 +2129,7 @@
     </row>
     <row r="26" spans="1:27" ht="15" customHeight="1">
       <c r="A26" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B26" s="4">
         <v>250</v>
@@ -2191,7 +2182,7 @@
     </row>
     <row r="27" spans="1:27" ht="15" customHeight="1">
       <c r="A27" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B27" s="5">
         <v>800</v>
@@ -2224,7 +2215,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
@@ -2244,7 +2235,7 @@
     </row>
     <row r="28" spans="1:27" ht="15" customHeight="1">
       <c r="A28" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B28" s="5">
         <v>800</v>
@@ -2277,7 +2268,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
@@ -2297,7 +2288,7 @@
     </row>
     <row r="29" spans="1:27" ht="15" customHeight="1">
       <c r="A29" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B29" s="4">
         <v>300</v>
@@ -2330,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
@@ -2350,7 +2341,7 @@
     </row>
     <row r="30" spans="1:27" ht="15" customHeight="1">
       <c r="A30" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B30" s="4">
         <v>250</v>
@@ -2403,7 +2394,7 @@
     </row>
     <row r="31" spans="1:27" ht="15" customHeight="1">
       <c r="A31" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B31" s="5">
         <v>900</v>
@@ -2436,7 +2427,7 @@
         <v>13</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
@@ -2456,7 +2447,7 @@
     </row>
     <row r="32" spans="1:27" ht="15" customHeight="1">
       <c r="A32" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B32" s="4">
         <v>600</v>
@@ -2489,7 +2480,7 @@
         <v>10</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="M32" s="12"/>
       <c r="N32" s="8"/>
@@ -2509,7 +2500,7 @@
     </row>
     <row r="33" spans="1:27" ht="15" customHeight="1">
       <c r="A33" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B33" s="4">
         <v>400</v>
@@ -2542,7 +2533,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="M33" s="13"/>
       <c r="N33" s="8"/>
@@ -2562,7 +2553,7 @@
     </row>
     <row r="34" spans="1:27" ht="15" customHeight="1">
       <c r="A34" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B34" s="4">
         <v>600</v>
@@ -2595,7 +2586,7 @@
         <v>1</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="M34" s="6"/>
       <c r="N34" s="6"/>
@@ -2615,7 +2606,7 @@
     </row>
     <row r="35" spans="1:27" ht="15" customHeight="1">
       <c r="A35" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B35" s="4">
         <v>250</v>
@@ -2648,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="M35" s="6"/>
       <c r="N35" s="6"/>
@@ -2668,7 +2659,7 @@
     </row>
     <row r="36" spans="1:27" ht="15" customHeight="1">
       <c r="A36" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B36" s="5">
         <v>700</v>
@@ -2701,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="M36" s="6"/>
       <c r="N36" s="6"/>
@@ -2721,7 +2712,7 @@
     </row>
     <row r="37" spans="1:27" ht="15" customHeight="1">
       <c r="A37" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B37" s="4">
         <v>500</v>
@@ -2754,7 +2745,7 @@
         <v>34</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="M37" s="6"/>
       <c r="N37" s="6"/>
@@ -2774,7 +2765,7 @@
     </row>
     <row r="38" spans="1:27" ht="15" customHeight="1">
       <c r="A38" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B38" s="4">
         <v>550</v>
@@ -2807,7 +2798,7 @@
         <v>0</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M38" s="6"/>
       <c r="N38" s="6"/>
@@ -2827,7 +2818,7 @@
     </row>
     <row r="39" spans="1:27" ht="15" customHeight="1">
       <c r="A39" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B39" s="4">
         <v>600</v>
@@ -2860,7 +2851,7 @@
         <v>7</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M39" s="6"/>
       <c r="N39" s="6"/>
@@ -2880,7 +2871,7 @@
     </row>
     <row r="40" spans="1:27" ht="15" customHeight="1">
       <c r="A40" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B40" s="4">
         <v>600</v>
@@ -2913,7 +2904,7 @@
         <v>0</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M40" s="6"/>
       <c r="N40" s="6"/>
@@ -2933,7 +2924,7 @@
     </row>
     <row r="41" spans="1:27" ht="15" customHeight="1">
       <c r="A41" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B41" s="4">
         <v>600</v>
@@ -2966,7 +2957,7 @@
         <v>8</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M41" s="6"/>
       <c r="N41" s="6"/>
@@ -2986,7 +2977,7 @@
     </row>
     <row r="42" spans="1:27" ht="15" customHeight="1">
       <c r="A42" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B42" s="4">
         <v>450</v>
@@ -3019,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="M42" s="6"/>
       <c r="N42" s="6"/>
@@ -3039,7 +3030,7 @@
     </row>
     <row r="43" spans="1:27" ht="15" customHeight="1">
       <c r="A43" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B43" s="4">
         <v>300</v>
@@ -3092,7 +3083,7 @@
     </row>
     <row r="44" spans="1:27" ht="15" customHeight="1">
       <c r="A44" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B44" s="4">
         <v>350</v>
@@ -3125,7 +3116,7 @@
         <v>2</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M44" s="6"/>
       <c r="N44" s="6"/>
@@ -3145,7 +3136,7 @@
     </row>
     <row r="45" spans="1:27" ht="15" customHeight="1">
       <c r="A45" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B45" s="5">
         <v>500</v>
@@ -3178,7 +3169,7 @@
         <v>5</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M45" s="6"/>
       <c r="N45" s="6"/>
@@ -3198,7 +3189,7 @@
     </row>
     <row r="46" spans="1:27" ht="15" customHeight="1">
       <c r="A46" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B46" s="4">
         <v>500</v>
@@ -3231,7 +3222,7 @@
         <v>14</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="M46" s="6"/>
       <c r="N46" s="6"/>
@@ -3251,7 +3242,7 @@
     </row>
     <row r="47" spans="1:27" ht="15" customHeight="1">
       <c r="A47" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B47" s="4">
         <v>450</v>
@@ -3284,7 +3275,7 @@
         <v>0</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M47" s="6"/>
       <c r="N47" s="6"/>
@@ -3304,7 +3295,7 @@
     </row>
     <row r="48" spans="1:27" ht="15" customHeight="1">
       <c r="A48" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B48" s="4">
         <v>450</v>
@@ -3337,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="M48" s="6"/>
       <c r="N48" s="6"/>
@@ -3357,7 +3348,7 @@
     </row>
     <row r="49" spans="1:27" ht="15" customHeight="1">
       <c r="A49" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B49" s="4">
         <v>400</v>
@@ -3410,7 +3401,7 @@
     </row>
     <row r="50" spans="1:27" ht="15" customHeight="1">
       <c r="A50" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B50" s="4">
         <v>500</v>
@@ -3443,7 +3434,7 @@
         <v>0</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M50" s="6"/>
       <c r="N50" s="6"/>
@@ -3463,7 +3454,7 @@
     </row>
     <row r="51" spans="1:27" ht="15" customHeight="1">
       <c r="A51" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B51" s="4">
         <v>450</v>
@@ -3516,7 +3507,7 @@
     </row>
     <row r="52" spans="1:27" ht="15" customHeight="1">
       <c r="A52" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B52" s="4">
         <v>500</v>
@@ -3549,7 +3540,7 @@
         <v>0</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M52" s="6"/>
       <c r="N52" s="6"/>
